--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.917790801114272</v>
+        <v>0.8598786354551747</v>
       </c>
       <c r="D2">
-        <v>0.3587723246433716</v>
+        <v>0.3958786986172012</v>
       </c>
       <c r="E2">
         <v>2.351752565522283</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-2.065114490502955</v>
+        <v>-2.166286983853513</v>
       </c>
       <c r="D3">
-        <v>0.03896320050624369</v>
+        <v>0.03739143186762073</v>
       </c>
       <c r="E3">
         <v>2.351752565522283</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.9720426613630736</v>
+        <v>-1.394629964818566</v>
       </c>
       <c r="D4">
-        <v>0.3310759822298175</v>
+        <v>0.1721734310753793</v>
       </c>
       <c r="E4">
         <v>2.351752565522283</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-4.622188881480241</v>
+        <v>-2.413184202646503</v>
       </c>
       <c r="D5">
-        <v>3.89192724070675E-06</v>
+        <v>0.02135197105876241</v>
       </c>
       <c r="E5">
         <v>2.351752565522283</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-2.382306962018433</v>
+        <v>-2.0327767670436</v>
       </c>
       <c r="D6">
-        <v>0.01724142793136063</v>
+        <v>0.04994332885681874</v>
       </c>
       <c r="E6">
         <v>2.227200929319387</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.270446132515962</v>
+        <v>-1.729559377264682</v>
       </c>
       <c r="D7">
-        <v>0.2039844132893023</v>
+        <v>0.09277951885676061</v>
       </c>
       <c r="E7">
         <v>2.227200929319387</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-4.545922724098333</v>
+        <v>-2.273979684159579</v>
       </c>
       <c r="D8">
-        <v>5.597554717517994E-06</v>
+        <v>0.02939808063263105</v>
       </c>
       <c r="E8">
         <v>2.227200929319387</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6071850240369647</v>
+        <v>0.6526159095817147</v>
       </c>
       <c r="D9">
-        <v>0.5437554878001514</v>
+        <v>0.5183924446284658</v>
       </c>
       <c r="E9">
         <v>2.666715204256013</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.546199561278382</v>
+        <v>-2.024487921746192</v>
       </c>
       <c r="D10">
-        <v>0.01091979984732738</v>
+        <v>0.05083227895260101</v>
       </c>
       <c r="E10">
         <v>2.666715204256013</v>
@@ -661,7 +661,7 @@
         <v>3.142382867561149</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.752843374172302</v>
+        <v>-2.000417524789786</v>
       </c>
       <c r="D11">
-        <v>0.005929174527572911</v>
+        <v>0.05349263671563342</v>
       </c>
       <c r="E11">
         <v>2.545134166911449</v>
@@ -687,7 +687,7 @@
         <v>3.142382867561149</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
